--- a/excel/collective/zestawy_dla_uczniow/zestaw_040.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_040.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t>ZESTAW ZADAŃ NR 40 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Jakub Kowalski</t>
-  </si>
-  <si>
-    <t>Jan Szymański</t>
-  </si>
-  <si>
-    <t>Mikołaj Kowalczyk</t>
-  </si>
-  <si>
-    <t>Antoni Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Filip Woźniak</t>
+    <t>Jakub Grabowski</t>
+  </si>
+  <si>
+    <t>Julia Malinowska</t>
+  </si>
+  <si>
+    <t>Emilia Czarnecka</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Antoni Woźniak</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>11,40</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,50</t>
+    <t>1,70</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>5,20</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>5,50</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>4,90</t>
   </si>
   <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,80</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>0,50</t>
+    <t>3,40</t>
   </si>
   <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,30</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>24,50</t>
+    <t>5,40</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>8,74</t>
+    <t>1,97</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>10,29</t>
+    <t>5,35</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>9,33</t>
+    <t>30,05</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>1,46</t>
+    <t>30,07</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>15,64</t>
+    <t>30,42</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>22,46</t>
-  </si>
-  <si>
-    <t>17,43</t>
-  </si>
-  <si>
-    <t>9,14</t>
-  </si>
-  <si>
-    <t>21,58</t>
-  </si>
-  <si>
-    <t>7,48</t>
+    <t>16,19</t>
+  </si>
+  <si>
+    <t>17,59</t>
+  </si>
+  <si>
+    <t>17,97</t>
+  </si>
+  <si>
+    <t>6,52</t>
+  </si>
+  <si>
+    <t>21,20</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>18,51</t>
-  </si>
-  <si>
-    <t>10,46</t>
-  </si>
-  <si>
-    <t>15,07</t>
-  </si>
-  <si>
-    <t>20,37</t>
-  </si>
-  <si>
-    <t>30,61</t>
+    <t>8,11</t>
+  </si>
+  <si>
+    <t>1,68</t>
+  </si>
+  <si>
+    <t>10,94</t>
+  </si>
+  <si>
+    <t>16,94</t>
+  </si>
+  <si>
+    <t>11,09</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,10 +340,22 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Nowak</t>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Borkowska</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Piotrowski</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
   </si>
   <si>
     <t>Filip</t>
@@ -352,28 +364,10 @@
     <t>Kamiński</t>
   </si>
   <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Antoni</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Wilk</t>
+    <t>Rogalska</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -409,145 +403,157 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Antoni Zieliński</t>
-  </si>
-  <si>
-    <t>01.12.1981</t>
-  </si>
-  <si>
-    <t>5 925,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Dąbrowski</t>
-  </si>
-  <si>
-    <t>10.12.2003</t>
-  </si>
-  <si>
-    <t>4 031,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Malinowska</t>
-  </si>
-  <si>
-    <t>22.06.2002</t>
-  </si>
-  <si>
-    <t>6 562,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Maciejewska</t>
-  </si>
-  <si>
-    <t>08.10.1997</t>
-  </si>
-  <si>
-    <t>7 292,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Borkowska</t>
-  </si>
-  <si>
-    <t>19.08.2004</t>
-  </si>
-  <si>
-    <t>12 464,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Rogalska</t>
-  </si>
-  <si>
-    <t>26.02.1998</t>
-  </si>
-  <si>
-    <t>13 086,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kozłowski</t>
-  </si>
-  <si>
-    <t>03.01.1980</t>
-  </si>
-  <si>
-    <t>10 591,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>26.01.1980</t>
-  </si>
-  <si>
-    <t>14 949,00 zł</t>
-  </si>
-  <si>
-    <t>11.03.1980</t>
-  </si>
-  <si>
-    <t>12 586,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Lis</t>
-  </si>
-  <si>
-    <t>25.08.1991</t>
-  </si>
-  <si>
-    <t>7 477,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Nowak</t>
-  </si>
-  <si>
-    <t>01.08.1994</t>
-  </si>
-  <si>
-    <t>13 956,00 zł</t>
-  </si>
-  <si>
-    <t>Szymon Krawczyk</t>
-  </si>
-  <si>
-    <t>12.07.2003</t>
-  </si>
-  <si>
-    <t>14 731,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Sadowska</t>
-  </si>
-  <si>
-    <t>14.01.1992</t>
-  </si>
-  <si>
-    <t>7 693,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>10.08.1993</t>
-  </si>
-  <si>
-    <t>6 814,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Lis</t>
-  </si>
-  <si>
-    <t>15.05.1993</t>
-  </si>
-  <si>
-    <t>9 435,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kowalski</t>
-  </si>
-  <si>
-    <t>18.06.1987</t>
-  </si>
-  <si>
-    <t>6 790,00 zł</t>
+    <t>Lena Piekarska</t>
+  </si>
+  <si>
+    <t>09.09.1978</t>
+  </si>
+  <si>
+    <t>11 836,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Piotrowski</t>
+  </si>
+  <si>
+    <t>26.08.1997</t>
+  </si>
+  <si>
+    <t>2 562,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Wójcik</t>
+  </si>
+  <si>
+    <t>09.12.1981</t>
+  </si>
+  <si>
+    <t>4 602,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Kaźmierczak</t>
+  </si>
+  <si>
+    <t>11.06.1991</t>
+  </si>
+  <si>
+    <t>10 882,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Jankowski</t>
+  </si>
+  <si>
+    <t>20.09.2002</t>
+  </si>
+  <si>
+    <t>6 356,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Górska</t>
+  </si>
+  <si>
+    <t>27.04.1986</t>
+  </si>
+  <si>
+    <t>8 006,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Wójcik</t>
+  </si>
+  <si>
+    <t>09.11.1999</t>
+  </si>
+  <si>
+    <t>7 368,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Wojciechowski</t>
+  </si>
+  <si>
+    <t>23.05.1995</t>
+  </si>
+  <si>
+    <t>9 704,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Woźniak</t>
+  </si>
+  <si>
+    <t>03.06.2002</t>
+  </si>
+  <si>
+    <t>11 431,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Wiśniewski</t>
+  </si>
+  <si>
+    <t>07.03.1979</t>
+  </si>
+  <si>
+    <t>11 109,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Zawadzka</t>
+  </si>
+  <si>
+    <t>10.11.1983</t>
+  </si>
+  <si>
+    <t>12 791,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Kubiak</t>
+  </si>
+  <si>
+    <t>18.05.1975</t>
+  </si>
+  <si>
+    <t>14 710,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Olszewska</t>
+  </si>
+  <si>
+    <t>14.05.1987</t>
+  </si>
+  <si>
+    <t>3 059,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Bednarska</t>
+  </si>
+  <si>
+    <t>21.12.2003</t>
+  </si>
+  <si>
+    <t>10 871,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Wilk</t>
+  </si>
+  <si>
+    <t>22.07.1975</t>
+  </si>
+  <si>
+    <t>4 665,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Lis</t>
+  </si>
+  <si>
+    <t>19.03.1998</t>
+  </si>
+  <si>
+    <t>6 868,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Kamiński</t>
+  </si>
+  <si>
+    <t>20.01.1978</t>
+  </si>
+  <si>
+    <t>2 950,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -619,34 +625,226 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>697,00 zł</t>
-  </si>
-  <si>
-    <t>941,00 zł</t>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 157,00 zł</t>
+  </si>
+  <si>
+    <t>1 273,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 367,00 zł</t>
+  </si>
+  <si>
+    <t>1 886,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>694,00 zł</t>
+  </si>
+  <si>
+    <t>916,00 zł</t>
   </si>
   <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
-    <t>2 008,00 zł</t>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>931,00 zł</t>
+  </si>
+  <si>
+    <t>1 285,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 493,00 zł</t>
+  </si>
+  <si>
+    <t>1 986,00 zł</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 278,00 zł</t>
+  </si>
+  <si>
+    <t>1 725,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 150,00 zł</t>
+  </si>
+  <si>
+    <t>1 426,00 zł</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 428,00 zł</t>
+  </si>
+  <si>
+    <t>1 899,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 447,00 zł</t>
+  </si>
+  <si>
+    <t>1 953,00 zł</t>
+  </si>
+  <si>
+    <t>955,00 zł</t>
+  </si>
+  <si>
+    <t>1 261,00 zł</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>1 220,00 zł</t>
+  </si>
+  <si>
+    <t>1 549,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 448,00 zł</t>
+  </si>
+  <si>
+    <t>1 622,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 219,00 zł</t>
+  </si>
+  <si>
+    <t>1 475,00 zł</t>
+  </si>
+  <si>
+    <t>1 256,00 zł</t>
+  </si>
+  <si>
+    <t>1 721,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>1 172,00 zł</t>
+  </si>
+  <si>
+    <t>1 641,00 zł</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 410,00 zł</t>
+  </si>
+  <si>
+    <t>1 579,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 394,00 zł</t>
+  </si>
+  <si>
+    <t>1 659,00 zł</t>
   </si>
   <si>
     <t>Ewa Kowalczyk</t>
@@ -655,256 +853,85 @@
     <t>łódzkie</t>
   </si>
   <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 092,00 zł</t>
+  </si>
+  <si>
+    <t>1 267,00 zł</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 288,00 zł</t>
+  </si>
+  <si>
+    <t>1 610,00 zł</t>
+  </si>
+  <si>
+    <t>1 063,00 zł</t>
+  </si>
+  <si>
+    <t>1 339,00 zł</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>652,00 zł</t>
+  </si>
+  <si>
+    <t>906,00 zł</t>
+  </si>
+  <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>1 346,00 zł</t>
-  </si>
-  <si>
-    <t>1 615,00 zł</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 020,00 zł</t>
-  </si>
-  <si>
-    <t>1 132,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 404,00 zł</t>
-  </si>
-  <si>
-    <t>1 727,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>970,00 zł</t>
-  </si>
-  <si>
-    <t>1 086,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 373,00 zł</t>
-  </si>
-  <si>
-    <t>1 510,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 182,00 zł</t>
-  </si>
-  <si>
-    <t>1 300,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>1 403,00 zł</t>
-  </si>
-  <si>
-    <t>1 656,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 387,00 zł</t>
-  </si>
-  <si>
-    <t>1 789,00 zł</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>624,00 zł</t>
-  </si>
-  <si>
-    <t>811,00 zł</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 097,00 zł</t>
-  </si>
-  <si>
-    <t>1 327,00 zł</t>
-  </si>
-  <si>
-    <t>1 320,00 zł</t>
-  </si>
-  <si>
-    <t>1 808,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>805,00 zł</t>
-  </si>
-  <si>
-    <t>1 111,00 zł</t>
-  </si>
-  <si>
-    <t>1 283,00 zł</t>
-  </si>
-  <si>
-    <t>1 732,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 321,00 zł</t>
-  </si>
-  <si>
-    <t>1 810,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>738,00 zł</t>
-  </si>
-  <si>
-    <t>996,00 zł</t>
-  </si>
-  <si>
-    <t>590,00 zł</t>
-  </si>
-  <si>
-    <t>655,00 zł</t>
+    <t>766,00 zł</t>
+  </si>
+  <si>
+    <t>881,00 zł</t>
   </si>
   <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 189,00 zł</t>
-  </si>
-  <si>
-    <t>1 546,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 239,00 zł</t>
-  </si>
-  <si>
-    <t>1 710,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>1 272,00 zł</t>
-  </si>
-  <si>
-    <t>1 666,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>1 305,00 zł</t>
-  </si>
-  <si>
-    <t>1 436,00 zł</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 130,00 zł</t>
-  </si>
-  <si>
-    <t>1 526,00 zł</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 059,00 zł</t>
-  </si>
-  <si>
-    <t>1 175,00 zł</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>1 183,00 zł</t>
-  </si>
-  <si>
-    <t>1 597,00 zł</t>
-  </si>
-  <si>
-    <t>1 354,00 zł</t>
-  </si>
-  <si>
-    <t>1 584,00 zł</t>
+    <t>999,00 zł</t>
+  </si>
+  <si>
+    <t>1 319,00 zł</t>
+  </si>
+  <si>
+    <t>1 009,00 zł</t>
+  </si>
+  <si>
+    <t>1 362,00 zł</t>
+  </si>
+  <si>
+    <t>1 191,00 zł</t>
+  </si>
+  <si>
+    <t>1 536,00 zł</t>
+  </si>
+  <si>
+    <t>1 462,00 zł</t>
+  </si>
+  <si>
+    <t>1 696,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>1 105,00 zł</t>
+  </si>
+  <si>
+    <t>1 481,00 zł</t>
+  </si>
+  <si>
+    <t>2 029,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1461,19 +1488,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
       <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1482,19 +1509,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1506,16 +1533,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
         <v>5</v>
       </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1524,19 +1551,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1545,19 +1572,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>5</v>
       </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>6</v>
-      </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1569,10 +1596,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
@@ -1587,19 +1614,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1608,19 +1635,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1629,19 +1656,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
         <v>6</v>
       </c>
-      <c r="C25" s="3">
-        <v>6</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>5</v>
       </c>
-      <c r="E25" s="3">
-        <v>6</v>
-      </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1653,13 +1680,13 @@
         <v>6</v>
       </c>
       <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
         <v>3</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
       </c>
       <c r="F26" s="3">
         <v>4</v>
@@ -1671,19 +1698,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="3">
         <v>6</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F27" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1692,19 +1719,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
       </c>
       <c r="D28" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
         <v>4</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1826,7 +1853,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1841,7 +1868,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1856,7 +1883,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1871,7 +1898,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1886,7 +1913,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1901,7 +1928,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2018,7 +2045,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2030,7 +2057,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2042,7 +2069,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2054,7 +2081,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2066,7 +2093,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2114,7 +2141,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2126,7 +2153,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2138,7 +2165,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2150,7 +2177,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2162,7 +2189,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2210,7 +2237,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2222,7 +2249,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2234,7 +2261,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2246,7 +2273,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2258,7 +2285,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2404,22 +2431,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3">
         <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2433,22 +2460,22 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
         <v>5</v>
       </c>
       <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3">
         <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>4</v>
       </c>
       <c r="J13" s="3">
         <v>2</v>
@@ -2465,25 +2492,25 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6</v>
-      </c>
-      <c r="J14" s="3">
-        <v>4</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2497,25 +2524,25 @@
         <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3">
         <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2523,31 +2550,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="D16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2555,38 +2582,38 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
         <v>4</v>
       </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5</v>
       </c>
-      <c r="H17" s="3">
-        <v>6</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2602,7 +2629,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2633,10 +2660,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2648,7 +2675,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2658,243 +2685,254 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
+      <c r="B27" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>180</v>
+      <c r="A30" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2912,10 +2950,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2931,7 +2969,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2941,75 +2979,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3017,22 +3055,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3040,22 +3078,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3063,22 +3101,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3086,22 +3124,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3109,22 +3147,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3132,22 +3170,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3155,22 +3193,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3178,22 +3216,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3201,22 +3239,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3224,22 +3262,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3247,22 +3285,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3270,22 +3308,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3293,22 +3331,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3316,22 +3354,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3339,22 +3377,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3362,22 +3400,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3385,22 +3423,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3408,22 +3446,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>220</v>
+        <v>277</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3431,22 +3469,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3454,22 +3492,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3477,22 +3515,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3500,22 +3538,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3523,22 +3561,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3546,22 +3584,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3569,22 +3607,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3592,67 +3630,113 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>295</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>180</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>296</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>180</v>
+      <c r="A46" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>307</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>308</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_040.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_040.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>ZESTAW ZADAŃ NR 40 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 40 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,70</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>5,20</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>5,50</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>4,90</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>3,40</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,40</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>1,97</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>5,35</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>30,05</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>30,07</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>30,42</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>16,19</t>
-  </si>
-  <si>
-    <t>17,59</t>
-  </si>
-  <si>
-    <t>17,97</t>
-  </si>
-  <si>
-    <t>6,52</t>
-  </si>
-  <si>
-    <t>21,20</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>8,11</t>
-  </si>
-  <si>
-    <t>1,68</t>
-  </si>
-  <si>
-    <t>10,94</t>
-  </si>
-  <si>
-    <t>16,94</t>
-  </si>
-  <si>
-    <t>11,09</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -409,153 +331,102 @@
     <t>09.09.1978</t>
   </si>
   <si>
-    <t>11 836,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Piotrowski</t>
   </si>
   <si>
     <t>26.08.1997</t>
   </si>
   <si>
-    <t>2 562,00 zł</t>
-  </si>
-  <si>
     <t>Adam Wójcik</t>
   </si>
   <si>
     <t>09.12.1981</t>
   </si>
   <si>
-    <t>4 602,00 zł</t>
-  </si>
-  <si>
     <t>Maja Kaźmierczak</t>
   </si>
   <si>
     <t>11.06.1991</t>
   </si>
   <si>
-    <t>10 882,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Jankowski</t>
   </si>
   <si>
     <t>20.09.2002</t>
   </si>
   <si>
-    <t>6 356,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Górska</t>
   </si>
   <si>
     <t>27.04.1986</t>
   </si>
   <si>
-    <t>8 006,00 zł</t>
-  </si>
-  <si>
     <t>Maja Wójcik</t>
   </si>
   <si>
     <t>09.11.1999</t>
   </si>
   <si>
-    <t>7 368,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Wojciechowski</t>
   </si>
   <si>
     <t>23.05.1995</t>
   </si>
   <si>
-    <t>9 704,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Woźniak</t>
   </si>
   <si>
     <t>03.06.2002</t>
   </si>
   <si>
-    <t>11 431,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Wiśniewski</t>
   </si>
   <si>
     <t>07.03.1979</t>
   </si>
   <si>
-    <t>11 109,00 zł</t>
-  </si>
-  <si>
     <t>Julia Zawadzka</t>
   </si>
   <si>
     <t>10.11.1983</t>
   </si>
   <si>
-    <t>12 791,00 zł</t>
-  </si>
-  <si>
     <t>Julia Kubiak</t>
   </si>
   <si>
     <t>18.05.1975</t>
   </si>
   <si>
-    <t>14 710,00 zł</t>
-  </si>
-  <si>
     <t>Lena Olszewska</t>
   </si>
   <si>
     <t>14.05.1987</t>
   </si>
   <si>
-    <t>3 059,00 zł</t>
-  </si>
-  <si>
     <t>Julia Bednarska</t>
   </si>
   <si>
     <t>21.12.2003</t>
   </si>
   <si>
-    <t>10 871,00 zł</t>
-  </si>
-  <si>
     <t>Anna Wilk</t>
   </si>
   <si>
     <t>22.07.1975</t>
   </si>
   <si>
-    <t>4 665,00 zł</t>
-  </si>
-  <si>
     <t>Lena Lis</t>
   </si>
   <si>
     <t>19.03.1998</t>
   </si>
   <si>
-    <t>6 868,00 zł</t>
-  </si>
-  <si>
     <t>Adam Kamiński</t>
   </si>
   <si>
     <t>20.01.1978</t>
   </si>
   <si>
-    <t>2 950,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -568,9 +439,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -631,12 +499,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 157,00 zł</t>
-  </si>
-  <si>
-    <t>1 273,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -649,12 +511,6 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 367,00 zł</t>
-  </si>
-  <si>
-    <t>1 886,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -664,12 +520,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>694,00 zł</t>
-  </si>
-  <si>
-    <t>916,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -679,12 +529,6 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>931,00 zł</t>
-  </si>
-  <si>
-    <t>1 285,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -697,24 +541,12 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 493,00 zł</t>
-  </si>
-  <si>
-    <t>1 986,00 zł</t>
-  </si>
-  <si>
     <t>czerwiec</t>
   </si>
   <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 278,00 zł</t>
-  </si>
-  <si>
-    <t>1 725,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -724,21 +556,9 @@
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 150,00 zł</t>
-  </si>
-  <si>
-    <t>1 426,00 zł</t>
-  </si>
-  <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 428,00 zł</t>
-  </si>
-  <si>
-    <t>1 899,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -751,27 +571,9 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 447,00 zł</t>
-  </si>
-  <si>
-    <t>1 953,00 zł</t>
-  </si>
-  <si>
-    <t>955,00 zł</t>
-  </si>
-  <si>
-    <t>1 261,00 zł</t>
-  </si>
-  <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>1 220,00 zł</t>
-  </si>
-  <si>
-    <t>1 549,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -781,12 +583,6 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 448,00 zł</t>
-  </si>
-  <si>
-    <t>1 622,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -796,18 +592,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 219,00 zł</t>
-  </si>
-  <si>
-    <t>1 475,00 zł</t>
-  </si>
-  <si>
-    <t>1 256,00 zł</t>
-  </si>
-  <si>
-    <t>1 721,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
@@ -817,36 +601,18 @@
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>1 172,00 zł</t>
-  </si>
-  <si>
-    <t>1 641,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 410,00 zł</t>
-  </si>
-  <si>
-    <t>1 579,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 394,00 zł</t>
-  </si>
-  <si>
-    <t>1 659,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -856,82 +622,19 @@
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 092,00 zł</t>
-  </si>
-  <si>
-    <t>1 267,00 zł</t>
-  </si>
-  <si>
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 288,00 zł</t>
-  </si>
-  <si>
-    <t>1 610,00 zł</t>
-  </si>
-  <si>
-    <t>1 063,00 zł</t>
-  </si>
-  <si>
-    <t>1 339,00 zł</t>
-  </si>
-  <si>
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>652,00 zł</t>
-  </si>
-  <si>
-    <t>906,00 zł</t>
-  </si>
-  <si>
     <t>Karta graficzna RTX</t>
   </si>
   <si>
-    <t>766,00 zł</t>
-  </si>
-  <si>
-    <t>881,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
-    <t>999,00 zł</t>
-  </si>
-  <si>
-    <t>1 319,00 zł</t>
-  </si>
-  <si>
-    <t>1 009,00 zł</t>
-  </si>
-  <si>
-    <t>1 362,00 zł</t>
-  </si>
-  <si>
-    <t>1 191,00 zł</t>
-  </si>
-  <si>
-    <t>1 536,00 zł</t>
-  </si>
-  <si>
-    <t>1 462,00 zł</t>
-  </si>
-  <si>
-    <t>1 696,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>1 105,00 zł</t>
-  </si>
-  <si>
-    <t>1 481,00 zł</t>
-  </si>
-  <si>
-    <t>2 029,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -953,7 +656,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1010,14 +715,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1028,8 +733,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1060,30 +765,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1092,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1461,25 +1167,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1502,7 +1208,7 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1523,7 +1229,7 @@
       <c r="F18" s="3">
         <v>5</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1544,7 +1250,7 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1565,7 +1271,7 @@
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1586,7 +1292,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1607,7 +1313,7 @@
       <c r="F22" s="3">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1628,7 +1334,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1649,7 +1355,7 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1670,7 +1376,7 @@
       <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1691,7 +1397,7 @@
       <c r="F26" s="3">
         <v>4</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1712,7 +1418,7 @@
       <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1733,27 +1439,17 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1787,7 +1483,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1807,7 +1503,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1817,29 +1513,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1847,99 +1543,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.7</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5.2</v>
       </c>
       <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5.5</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.9</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3.4</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5.4</v>
       </c>
       <c r="D18" s="3">
         <v>8</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1972,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1997,113 +1693,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1.97</v>
       </c>
       <c r="C15" s="3">
         <v>26</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>5.35</v>
       </c>
       <c r="C16" s="3">
         <v>40</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>30.050000000000001</v>
       </c>
       <c r="C17" s="3">
         <v>14</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>30.07</v>
       </c>
       <c r="C18" s="3">
         <v>31</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>30.42</v>
       </c>
       <c r="C19" s="3">
         <v>8</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2112,94 +1808,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>16.19</v>
       </c>
       <c r="C24" s="3">
         <v>29</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>17.59</v>
       </c>
       <c r="C25" s="3">
         <v>45</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>17.97</v>
       </c>
       <c r="C26" s="3">
         <v>39</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6.52</v>
       </c>
       <c r="C27" s="3">
         <v>27</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>21.2</v>
       </c>
       <c r="C28" s="3">
         <v>34</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2208,98 +1904,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>8.11</v>
       </c>
       <c r="C33" s="3">
         <v>8</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1.68</v>
       </c>
       <c r="C34" s="3">
         <v>45</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>10.94</v>
       </c>
       <c r="C35" s="3">
         <v>36</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>16.94</v>
       </c>
       <c r="C36" s="3">
         <v>16</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>11.09</v>
       </c>
       <c r="C37" s="3">
         <v>5</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2322,7 +2018,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2342,90 +2038,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -2448,16 +2144,16 @@
       <c r="J12" s="3">
         <v>4</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -2480,16 +2176,16 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
@@ -2512,16 +2208,16 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -2544,16 +2240,16 @@
       <c r="J15" s="3">
         <v>2</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2576,16 +2272,16 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -2608,40 +2304,40 @@
       <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2674,266 +2370,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>118</v>
+      <c r="A1" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>126</v>
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11836</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2562</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4602</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10882</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>141</v>
+        <v>110</v>
+      </c>
+      <c r="C15" s="7">
+        <v>6356</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8006</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7368</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="7">
+        <v>9704</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
+      </c>
+      <c r="C19" s="7">
+        <v>11431</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11109</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
+      </c>
+      <c r="C21" s="7">
+        <v>12791</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
+      </c>
+      <c r="C22" s="7">
+        <v>14710</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>126</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3059</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>168</v>
+        <v>128</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10871</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>171</v>
+        <v>130</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4665</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>174</v>
+        <v>132</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6868</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>177</v>
+        <v>134</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2950</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
-        <v>178</v>
+      <c r="A30" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2968,86 +2658,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>183</v>
+      <c r="A1" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>200</v>
+      <c r="A15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3055,22 +2745,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>204</v>
+        <v>158</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1157</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1273</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3078,22 +2768,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>210</v>
+        <v>162</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1367</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1886</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3101,22 +2791,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>215</v>
+        <v>165</v>
+      </c>
+      <c r="D18" s="7">
+        <v>694</v>
+      </c>
+      <c r="E18" s="7">
+        <v>916</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3124,22 +2814,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
+      </c>
+      <c r="D19" s="7">
+        <v>931</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1285</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3147,22 +2837,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>226</v>
+        <v>172</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1493</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1986</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3170,22 +2860,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>230</v>
+        <v>174</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1278</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1725</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3193,22 +2883,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>235</v>
+        <v>177</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1150</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1426</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3216,22 +2906,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>238</v>
+        <v>178</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1428</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1899</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3239,22 +2929,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>244</v>
+        <v>182</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1447</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1953</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3262,22 +2952,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>246</v>
+        <v>158</v>
+      </c>
+      <c r="D25" s="7">
+        <v>955</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1261</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3285,22 +2975,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>249</v>
+        <v>165</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1220</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1549</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3308,22 +2998,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>254</v>
+        <v>186</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1448</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1622</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3331,22 +3021,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>259</v>
+        <v>189</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1219</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1475</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3354,22 +3044,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>261</v>
+        <v>186</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1256</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1721</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3377,22 +3067,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>266</v>
+        <v>192</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1172</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1641</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3400,22 +3090,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>270</v>
+        <v>194</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1410</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1579</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3423,22 +3113,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>274</v>
+        <v>196</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1394</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1659</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3446,22 +3136,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>279</v>
+        <v>199</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1092</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1267</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3469,22 +3159,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>282</v>
+        <v>200</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1288</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1610</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3492,22 +3182,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>284</v>
+        <v>174</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1063</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1339</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3515,22 +3205,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>287</v>
+        <v>201</v>
+      </c>
+      <c r="D36" s="7">
+        <v>652</v>
+      </c>
+      <c r="E36" s="7">
+        <v>906</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3538,22 +3228,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>290</v>
+        <v>202</v>
+      </c>
+      <c r="D37" s="7">
+        <v>766</v>
+      </c>
+      <c r="E37" s="7">
+        <v>881</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3561,22 +3251,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>293</v>
+        <v>200</v>
+      </c>
+      <c r="D38" s="7">
+        <v>999</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1319</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3584,22 +3274,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>295</v>
+        <v>178</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1009</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1362</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3607,22 +3297,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>297</v>
+        <v>177</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1191</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1536</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3630,22 +3320,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>299</v>
+        <v>158</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1462</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1696</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3653,22 +3343,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>253</v>
+        <v>186</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1105</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1448</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3676,68 +3366,58 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>303</v>
+        <v>192</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1481</v>
+      </c>
+      <c r="E43" s="7">
+        <v>2029</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="13" t="s">
-        <v>178</v>
+      <c r="A46" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>305</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>306</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>307</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>308</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>182</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_040.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_040.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="219">
   <si>
     <t>ZESTAW ZADAŃ NR 40 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Jakub Grabowski</t>
-  </si>
-  <si>
-    <t>Julia Malinowska</t>
-  </si>
-  <si>
-    <t>Emilia Czarnecka</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Antoni Woźniak</t>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>Szymon Kaczmarek</t>
+  </si>
+  <si>
+    <t>Emilia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Mikołaj Zieliński</t>
+  </si>
+  <si>
+    <t>Jakub Kowalczyk</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 40 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,22 +149,22 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
+    <t>Ołówek HB</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,37 +266,49 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Amelia</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
   </si>
   <si>
     <t>Borkowska</t>
   </si>
   <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Piotrowski</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Kamiński</t>
-  </si>
-  <si>
-    <t>Rogalska</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Dąbrowski</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -325,106 +344,55 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Lena Piekarska</t>
-  </si>
-  <si>
-    <t>09.09.1978</t>
-  </si>
-  <si>
-    <t>Kacper Piotrowski</t>
-  </si>
-  <si>
-    <t>26.08.1997</t>
-  </si>
-  <si>
-    <t>Adam Wójcik</t>
-  </si>
-  <si>
-    <t>09.12.1981</t>
-  </si>
-  <si>
-    <t>Maja Kaźmierczak</t>
-  </si>
-  <si>
-    <t>11.06.1991</t>
-  </si>
-  <si>
-    <t>Antoni Jankowski</t>
-  </si>
-  <si>
-    <t>20.09.2002</t>
-  </si>
-  <si>
-    <t>Emilia Górska</t>
-  </si>
-  <si>
-    <t>27.04.1986</t>
-  </si>
-  <si>
-    <t>Maja Wójcik</t>
-  </si>
-  <si>
-    <t>09.11.1999</t>
-  </si>
-  <si>
-    <t>Antoni Wojciechowski</t>
-  </si>
-  <si>
-    <t>23.05.1995</t>
-  </si>
-  <si>
-    <t>Aleksander Woźniak</t>
-  </si>
-  <si>
-    <t>03.06.2002</t>
-  </si>
-  <si>
-    <t>Jakub Wiśniewski</t>
-  </si>
-  <si>
-    <t>07.03.1979</t>
-  </si>
-  <si>
-    <t>Julia Zawadzka</t>
-  </si>
-  <si>
-    <t>10.11.1983</t>
-  </si>
-  <si>
-    <t>Julia Kubiak</t>
-  </si>
-  <si>
-    <t>18.05.1975</t>
-  </si>
-  <si>
-    <t>Lena Olszewska</t>
-  </si>
-  <si>
-    <t>14.05.1987</t>
-  </si>
-  <si>
-    <t>Julia Bednarska</t>
-  </si>
-  <si>
-    <t>21.12.2003</t>
-  </si>
-  <si>
-    <t>Anna Wilk</t>
-  </si>
-  <si>
-    <t>22.07.1975</t>
-  </si>
-  <si>
-    <t>Lena Lis</t>
-  </si>
-  <si>
-    <t>19.03.1998</t>
-  </si>
-  <si>
-    <t>Adam Kamiński</t>
-  </si>
-  <si>
-    <t>20.01.1978</t>
+    <t>Mikołaj Dąbrowski</t>
+  </si>
+  <si>
+    <t>Lena Kubiak</t>
+  </si>
+  <si>
+    <t>Jan Woźniak</t>
+  </si>
+  <si>
+    <t>Maja Bednarska</t>
+  </si>
+  <si>
+    <t>Hanna Urbaniak</t>
+  </si>
+  <si>
+    <t>Adam Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Jan Kozłowski</t>
+  </si>
+  <si>
+    <t>Jan Dąbrowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Jaworska</t>
+  </si>
+  <si>
+    <t>Aleksander Zieliński</t>
+  </si>
+  <si>
+    <t>Amelia Król</t>
+  </si>
+  <si>
+    <t>Hanna Piekarska</t>
+  </si>
+  <si>
+    <t>Adam Dąbrowski</t>
+  </si>
+  <si>
+    <t>Amelia Kubiak</t>
+  </si>
+  <si>
+    <t>Wojciech Dąbrowski</t>
+  </si>
+  <si>
+    <t>Jakub Woźniak</t>
+  </si>
+  <si>
+    <t>Aleksander Mazur</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -439,7 +407,67 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Jan Szymański</t>
+  </si>
+  <si>
+    <t>Lena Maciejewska</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalczyk</t>
+  </si>
+  <si>
+    <t>Natalia Borkowska</t>
+  </si>
+  <si>
+    <t>Zuzanna Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Borkowska</t>
+  </si>
+  <si>
+    <t>Wojciech Wójcik</t>
+  </si>
+  <si>
+    <t>Antoni Wójcik</t>
+  </si>
+  <si>
+    <t>Adam Kowalczyk</t>
+  </si>
+  <si>
+    <t>Szymon Mazur</t>
+  </si>
+  <si>
+    <t>Szymon Wójcik</t>
+  </si>
+  <si>
+    <t>Jakub Jankowski</t>
+  </si>
+  <si>
+    <t>Emilia Zawadzka</t>
+  </si>
+  <si>
+    <t>Amelia Górska</t>
+  </si>
+  <si>
+    <t>Wojciech Lewandowski</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -493,148 +521,148 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
     <t>styczeń</t>
   </si>
   <si>
-    <t>Zasilacz 650W</t>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
   </si>
   <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
   </si>
   <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
   </si>
   <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
+    <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
+    <t>świętokrzyskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -706,7 +734,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,12 +757,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -765,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -776,13 +798,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1089,7 +1110,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1194,19 +1215,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
         <v>6</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="3">
+      <c r="F17" s="3">
         <v>6</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1215,19 +1236,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1239,13 +1260,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
         <v>5</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
@@ -1257,19 +1278,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
       <c r="D20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1278,7 +1299,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -1287,10 +1308,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1299,7 +1320,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
         <v>6</v>
@@ -1308,10 +1329,10 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1320,16 +1341,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
@@ -1344,16 +1365,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1362,19 +1383,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
       </c>
       <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
         <v>6</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1383,19 +1404,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1407,16 +1428,16 @@
         <v>4</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
         <v>6</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3">
-        <v>4</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1425,7 +1446,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>6</v>
@@ -1434,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="3">
         <v>4</v>
@@ -1450,6 +1471,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1483,7 +1510,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1503,7 +1530,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1513,29 +1540,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1543,99 +1570,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.7</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4.4</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>5.2</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3.5</v>
       </c>
       <c r="D14" s="3">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>5.5</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>23.9</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4.9</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>11.7</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3.4</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.3</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5.4</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.8</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1652,10 +1679,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1668,7 +1695,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1693,27 +1720,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1721,85 +1748,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1.97</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1.71</v>
       </c>
       <c r="C15" s="3">
-        <v>26</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>5.35</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>29.57</v>
       </c>
       <c r="C16" s="3">
-        <v>40</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>30.050000000000001</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>24.66</v>
       </c>
       <c r="C17" s="3">
-        <v>14</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>30.07</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>14.16</v>
       </c>
       <c r="C18" s="3">
-        <v>31</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>30.42</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>9.84</v>
       </c>
       <c r="C19" s="3">
-        <v>8</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1808,8 +1835,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1817,85 +1844,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>16.19</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>6.58</v>
       </c>
       <c r="C24" s="3">
-        <v>29</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>17.59</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>30.59</v>
       </c>
       <c r="C25" s="3">
-        <v>45</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>17.97</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>20.94</v>
       </c>
       <c r="C26" s="3">
-        <v>39</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>6.52</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>17.2</v>
       </c>
       <c r="C27" s="3">
-        <v>27</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>21.2</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>14.98</v>
       </c>
       <c r="C28" s="3">
-        <v>34</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>50</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1904,8 +1931,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1913,89 +1940,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>8.11</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1.77</v>
       </c>
       <c r="C33" s="3">
-        <v>8</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>1.68</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>11.59</v>
       </c>
       <c r="C34" s="3">
-        <v>45</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>10.94</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>3.97</v>
       </c>
       <c r="C35" s="3">
-        <v>36</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>16.94</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>23.71</v>
       </c>
       <c r="C36" s="3">
-        <v>16</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>11.09</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>18.8</v>
       </c>
       <c r="C37" s="3">
-        <v>5</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2015,10 +2050,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L19"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2038,111 +2073,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3">
         <v>5</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
         <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2150,25 +2185,25 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
         <v>4</v>
-      </c>
-      <c r="H13" s="3">
-        <v>6</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
@@ -2182,31 +2217,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
       </c>
       <c r="H14" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2214,31 +2249,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
-        <v>5</v>
-      </c>
       <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>3</v>
-      </c>
       <c r="I15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2246,31 +2281,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
         <v>4</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>6</v>
       </c>
       <c r="I16" s="3">
         <v>3</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2278,28 +2313,28 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
       <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
         <v>2</v>
       </c>
-      <c r="H17" s="3">
-        <v>4</v>
-      </c>
       <c r="I17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
@@ -2308,42 +2343,106 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2356,10 +2455,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A31" sqref="A31:B33"/>
+      <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2370,260 +2469,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>92</v>
+      <c r="A1" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="7">
-        <v>11836</v>
+        <v>107</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6415</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="7">
-        <v>2562</v>
+        <v>108</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4471</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="7">
-        <v>4602</v>
+        <v>109</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5860</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10882</v>
+        <v>110</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3919</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="7">
-        <v>6356</v>
+        <v>111</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7363</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="7">
-        <v>8006</v>
+      <c r="B16" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6206</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7368</v>
+      <c r="B17" s="3">
+        <v>1987</v>
+      </c>
+      <c r="C17" s="8">
+        <v>10745</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="7">
-        <v>9704</v>
+        <v>114</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9527</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11431</v>
+        <v>115</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9742</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11109</v>
+        <v>116</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10678</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="7">
-        <v>12791</v>
+        <v>117</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2515</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="7">
-        <v>14710</v>
+        <v>118</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C22" s="8">
+        <v>9589</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="7">
-        <v>3059</v>
+        <v>119</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="8">
+        <v>9262</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10871</v>
+        <v>120</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C24" s="8">
+        <v>11750</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="7">
-        <v>4665</v>
+        <v>121</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C25" s="8">
+        <v>12224</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="7">
-        <v>6868</v>
+        <v>122</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C26" s="8">
+        <v>8691</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="17" t="s">
-        <v>135</v>
+        <v>123</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C27" s="8">
+        <v>9785</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1996</v>
+      </c>
+      <c r="C28" s="8">
+        <v>13090</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="2"/>
+      <c r="A31" s="16" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2640,10 +2750,230 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="A10" sqref="A10:C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="3">
+        <v>168</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="3">
+        <v>101</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="3">
+        <v>101</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="3">
+        <v>116</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3">
+        <v>183</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="3">
+        <v>156</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="3">
+        <v>194</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="3">
+        <v>176</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="3">
+        <v>139</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="3">
+        <v>163</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="3">
+        <v>107</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
+        <v>131</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="3">
+        <v>171</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="3">
+        <v>152</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="3">
+        <v>102</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3">
+        <v>131</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="3">
+        <v>174</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2658,86 +2988,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>139</v>
+      <c r="A1" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2745,22 +3075,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1157</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1273</v>
+        <v>167</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1340</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1796</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2768,22 +3098,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1367</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1886</v>
+        <v>171</v>
+      </c>
+      <c r="D17" s="8">
+        <v>676</v>
+      </c>
+      <c r="E17" s="8">
+        <v>933</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2791,22 +3121,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="7">
-        <v>694</v>
-      </c>
-      <c r="E18" s="7">
-        <v>916</v>
+        <v>175</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1423</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1693</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2814,22 +3144,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="7">
-        <v>931</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1285</v>
+        <v>179</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1378</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1902</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2837,22 +3167,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1493</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1986</v>
+        <v>182</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1372</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1852</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2860,22 +3190,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1278</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1725</v>
+        <v>184</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1134</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1338</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2883,22 +3213,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1150</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1426</v>
+        <v>186</v>
+      </c>
+      <c r="D22" s="8">
+        <v>857</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1106</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2906,22 +3236,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1428</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1899</v>
+        <v>188</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1376</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1926</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2929,22 +3259,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1447</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1953</v>
+        <v>188</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1045</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1181</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2952,22 +3282,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="7">
-        <v>955</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1261</v>
+        <v>190</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1429</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1972</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2975,22 +3305,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1220</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1549</v>
+        <v>193</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1430</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1873</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2998,22 +3328,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1448</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1622</v>
+        <v>179</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1309</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1479</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3021,22 +3351,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1219</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1475</v>
+        <v>197</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1211</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1477</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3044,22 +3374,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1256</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1721</v>
+        <v>200</v>
+      </c>
+      <c r="D29" s="8">
+        <v>645</v>
+      </c>
+      <c r="E29" s="8">
+        <v>755</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3067,22 +3397,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1172</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1641</v>
+        <v>202</v>
+      </c>
+      <c r="D30" s="8">
+        <v>573</v>
+      </c>
+      <c r="E30" s="8">
+        <v>796</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3090,22 +3420,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1410</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1579</v>
+        <v>171</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1468</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1967</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3113,22 +3443,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1394</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1659</v>
+        <v>204</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1205</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1470</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3136,22 +3466,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1092</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1267</v>
+        <v>206</v>
+      </c>
+      <c r="D33" s="8">
+        <v>780</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1014</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3159,22 +3489,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1288</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1610</v>
+        <v>182</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1012</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1386</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3182,22 +3512,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1063</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1339</v>
+        <v>209</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1414</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1768</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3205,22 +3535,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1304</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1526</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D36" s="7">
-        <v>652</v>
-      </c>
-      <c r="E36" s="7">
-        <v>906</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3228,22 +3558,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D37" s="7">
-        <v>766</v>
-      </c>
-      <c r="E37" s="7">
-        <v>881</v>
+        <v>212</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1354</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1787</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3251,22 +3581,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="7">
-        <v>999</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1319</v>
+        <v>167</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1185</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1529</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3274,22 +3604,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1009</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1362</v>
+        <v>197</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1340</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1568</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3297,22 +3627,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="8">
+        <v>902</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1091</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1191</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1536</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3320,104 +3650,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1462</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1696</v>
+        <v>179</v>
+      </c>
+      <c r="D41" s="8">
+        <v>883</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1051</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1105</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1448</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1481</v>
-      </c>
-      <c r="E43" s="7">
-        <v>2029</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>183</v>
-      </c>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>135</v>
-      </c>
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>205</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>206</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>207</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>209</v>
-      </c>
-      <c r="B51" s="6"/>
+        <v>218</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
